--- a/Data/Tags_fields/colnames_M.xlsx
+++ b/Data/Tags_fields/colnames_M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/bibliometrix_dd_europe/Data/Tags_fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884B798D-8D84-3A4B-8C4B-B4ABC9E5D4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9FB393-1F52-374B-8142-1BCC593347AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15300" xr2:uid="{8C18829D-5EEE-784D-B6AA-2299EA91AFE7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C18829D-5EEE-784D-B6AA-2299EA91AFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Index</t>
   </si>
@@ -216,14 +216,31 @@
   </si>
   <si>
     <t>Authors country</t>
+  </si>
+  <si>
+    <t>Var Type</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Numeric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,8 +268,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,29 +585,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2310A306-E68C-FB4F-9BE1-FE341F338901}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -599,8 +622,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -610,8 +636,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -621,8 +650,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -632,8 +664,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -643,8 +678,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -654,8 +692,11 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -665,8 +706,11 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -676,8 +720,11 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -687,8 +734,11 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -698,8 +748,11 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -709,8 +762,11 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -720,8 +776,11 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -731,8 +790,11 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -742,8 +804,11 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -753,8 +818,11 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -764,8 +832,11 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -775,8 +846,11 @@
       <c r="C18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -786,16 +860,22 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -805,8 +885,11 @@
       <c r="C21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -816,8 +899,11 @@
       <c r="C22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -827,8 +913,11 @@
       <c r="C23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -838,8 +927,11 @@
       <c r="C24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -849,8 +941,11 @@
       <c r="C25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -860,8 +955,11 @@
       <c r="C26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -871,8 +969,11 @@
       <c r="C27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -882,8 +983,11 @@
       <c r="C28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -893,8 +997,11 @@
       <c r="C29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -903,6 +1010,9 @@
       </c>
       <c r="C30" t="s">
         <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Tags_fields/colnames_M.xlsx
+++ b/Data/Tags_fields/colnames_M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/bibliometrix_dd_europe/Data/Tags_fields/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/bibliometrix_dd_europe/Data/Tags_fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9FB393-1F52-374B-8142-1BCC593347AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEFCAF6-7FF5-7544-BF6C-2707FC87AE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8C18829D-5EEE-784D-B6AA-2299EA91AFE7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{8C18829D-5EEE-784D-B6AA-2299EA91AFE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
